--- a/supp_data/pcawg_positive_sig_path_survivals_nonepi.xlsx
+++ b/supp_data/pcawg_positive_sig_path_survivals_nonepi.xlsx
@@ -2220,6 +2220,1504 @@
         <v>96</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.150160354796658</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.16202056336033</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0632214899103347</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.37514735906455</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.0175419454071951</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-1.68028512620989</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.186320843509098</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.831505075320975</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-2.02077555036122</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.0433030048927293</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>77</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2.77106711673303</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15.9756728247676</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.3018255828109</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.12860090731182</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.0332872933894019</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.68591113294214</v>
+      </c>
+      <c r="C148" t="n">
+        <v>14.6715630366111</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.01217759152489</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.65359671606215</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.00796389442681687</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>79</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3.46910129505366</v>
+      </c>
+      <c r="C149" t="n">
+        <v>32.1078739694226</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.1812450589143</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.93681761364755</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.00331599062799267</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>80</v>
+      </c>
+      <c r="B153" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.168678189536587</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.844780718921785</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.510956432063735</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-0.330122450666297</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.741307440099148</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>77</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.63435402641028</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.12614557261605</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.13861465998929</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.43538818165723</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.151176511870373</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>78</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.52577981378389</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.59872832313955</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.77747707380491</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.9624756345764</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.0497071346268963</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>79</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.91553567709723</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.79057537860297</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.853166091549688</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.2452084020567</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0247547569742242</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>80</v>
+      </c>
+      <c r="B186" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.0517773492858235</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.05314123375974</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.0384794607684321</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.34558406619618</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.178436693159941</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>77</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.8516841135151</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6.37053920466055</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.17574239458407</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.57490630774623</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.115278072480354</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>78</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.95288623314136</v>
+      </c>
+      <c r="C213" t="n">
+        <v>7.04900331549523</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.887202499174916</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2.20117305232741</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.027723775239047</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>79</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2.01686253062692</v>
+      </c>
+      <c r="C214" t="n">
+        <v>7.51471073384354</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.82788533707277</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.43616167639607</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.0148440481876146</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>80</v>
+      </c>
+      <c r="B219" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>77</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.58659814319896</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.88709541917128</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.1293811628974</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.40483850388347</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.160069306585122</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>78</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1.52235103993075</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4.58298732528998</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.77621971334687</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.96123728082961</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.0498513498230879</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>79</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.80128174202585</v>
+      </c>
+      <c r="C246" t="n">
+        <v>6.05740652330335</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.77168237158655</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2.33422688964954</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.0195838446125934</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>80</v>
+      </c>
+      <c r="B252" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.150160354796658</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.16202056336033</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0632214899103347</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2.37514735906455</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.0175419454071951</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-1.68028512620989</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.186320843509098</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.831505075320975</v>
+      </c>
+      <c r="E285" t="n">
+        <v>-2.02077555036122</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.0433030048927293</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>77</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2.77106711673303</v>
+      </c>
+      <c r="C286" t="n">
+        <v>15.9756728247676</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.3018255828109</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2.12860090731182</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.0332872933894019</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>78</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2.68591113294214</v>
+      </c>
+      <c r="C287" t="n">
+        <v>14.6715630366111</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.01217759152489</v>
+      </c>
+      <c r="E287" t="n">
+        <v>2.65359671606215</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.00796389442681687</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>79</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3.46910129505366</v>
+      </c>
+      <c r="C288" t="n">
+        <v>32.1078739694226</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.1812450589143</v>
+      </c>
+      <c r="E288" t="n">
+        <v>2.93681761364755</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.00331599062799267</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>80</v>
+      </c>
+      <c r="B292" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
+      <c r="F316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.168678189536587</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.844780718921785</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.510956432063735</v>
+      </c>
+      <c r="E317" t="n">
+        <v>-0.330122450666297</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.741307440099148</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>77</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1.63435402641028</v>
+      </c>
+      <c r="C318" t="n">
+        <v>5.12614557261605</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1.13861465998929</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1.43538818165723</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.151176511870373</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>78</v>
+      </c>
+      <c r="B319" t="n">
+        <v>1.52577981378389</v>
+      </c>
+      <c r="C319" t="n">
+        <v>4.59872832313955</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.77747707380491</v>
+      </c>
+      <c r="E319" t="n">
+        <v>1.9624756345764</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.0497071346268963</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>79</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1.91553567709723</v>
+      </c>
+      <c r="C320" t="n">
+        <v>6.79057537860297</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.853166091549688</v>
+      </c>
+      <c r="E320" t="n">
+        <v>2.2452084020567</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.0247547569742242</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>80</v>
+      </c>
+      <c r="B325" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>3</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" t="s">
+        <v>7</v>
+      </c>
+      <c r="F349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.0517773492858235</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1.05314123375974</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.0384794607684321</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1.34558406619618</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.178436693159941</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>77</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1.8516841135151</v>
+      </c>
+      <c r="C351" t="n">
+        <v>6.37053920466055</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1.17574239458407</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1.57490630774623</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.115278072480354</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>78</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1.95288623314136</v>
+      </c>
+      <c r="C352" t="n">
+        <v>7.04900331549523</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.887202499174916</v>
+      </c>
+      <c r="E352" t="n">
+        <v>2.20117305232741</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.027723775239047</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>79</v>
+      </c>
+      <c r="B353" t="n">
+        <v>2.01686253062692</v>
+      </c>
+      <c r="C353" t="n">
+        <v>7.51471073384354</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.82788533707277</v>
+      </c>
+      <c r="E353" t="n">
+        <v>2.43616167639607</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.0148440481876146</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>80</v>
+      </c>
+      <c r="B358" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>3</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" t="s">
+        <v>7</v>
+      </c>
+      <c r="F382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>77</v>
+      </c>
+      <c r="B383" t="n">
+        <v>1.58659814319896</v>
+      </c>
+      <c r="C383" t="n">
+        <v>4.88709541917128</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1.1293811628974</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1.40483850388347</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.160069306585122</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>78</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1.52235103993075</v>
+      </c>
+      <c r="C384" t="n">
+        <v>4.58298732528998</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.77621971334687</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1.96123728082961</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.0498513498230879</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>79</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1.80128174202585</v>
+      </c>
+      <c r="C385" t="n">
+        <v>6.05740652330335</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.77168237158655</v>
+      </c>
+      <c r="E385" t="n">
+        <v>2.33422688964954</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.0195838446125934</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>15</v>
+      </c>
+      <c r="B390" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>80</v>
+      </c>
+      <c r="B391" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2983,6 +4481,1504 @@
         <v>132</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.0183136318004213</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.981853043725458</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0635176237911287</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-0.288323629055203</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.773099021411797</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.33261380818222</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3.79093923700463</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.746467616642485</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.78522655031727</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.0742245770671657</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>78</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.81974085989622</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.17025928105769</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.40501542817338</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.29517500193006</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.195259866271341</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>114</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.302898041037059</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.35377642776474</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.41455020514333</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.214130286741126</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.830445458105551</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>115</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2.35575829493013</v>
+      </c>
+      <c r="C149" t="n">
+        <v>10.5461229019214</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.19252814986638</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.97543202245924</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0482191417957491</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>116</v>
+      </c>
+      <c r="B153" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.25296266875039</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.50069902068757</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.686710577241825</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.82458623803775</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0680634917248234</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>78</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.81629665253622</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6.14904418419726</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.39365317388675</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.30326302595844</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.192484979475682</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>114</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.123768712792881</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.13175408048552</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.26165018364079</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.0981006576923861</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.921852365284012</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>115</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2.22978288098137</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9.29784712087207</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.08775780976639</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.04988910303502</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0403752538151354</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>116</v>
+      </c>
+      <c r="B186" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.0293648844158852</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.02980028400444</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.0537458521031696</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.546365594120955</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.584814655519503</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>78</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.12184501818491</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.07051413476485</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.32658474863847</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.845664040187637</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.397740189050659</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>114</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.473891646960133</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.62257470677521</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.32823563405135</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-0.356782813840555</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.72125440322666</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>115</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.38473283427259</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.99375876680561</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.929076519598748</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.49044002841729</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.136108574167463</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>116</v>
+      </c>
+      <c r="B219" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>78</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.970872839391903</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2.64024796634151</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.29167223192879</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.751640250051783</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.452267431209512</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>114</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.22146182336513</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.801346514277259</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.24946951936572</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-0.17724467858772</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.85931620275319</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>115</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.48331013642442</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4.40751102376425</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.91314309813029</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.62440053422249</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.104290353148421</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>116</v>
+      </c>
+      <c r="B252" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-0.0183136318004213</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.981853043725458</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0635176237911287</v>
+      </c>
+      <c r="E284" t="n">
+        <v>-0.288323629055203</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.773099021411797</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1.33261380818222</v>
+      </c>
+      <c r="C285" t="n">
+        <v>3.79093923700463</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.746467616642485</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1.78522655031727</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.0742245770671657</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>78</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1.81974085989622</v>
+      </c>
+      <c r="C286" t="n">
+        <v>6.17025928105769</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.40501542817338</v>
+      </c>
+      <c r="E286" t="n">
+        <v>1.29517500193006</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.195259866271341</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>114</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.302898041037059</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1.35377642776474</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.41455020514333</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.214130286741126</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.830445458105551</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>115</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2.35575829493013</v>
+      </c>
+      <c r="C288" t="n">
+        <v>10.5461229019214</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.19252814986638</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1.97543202245924</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.0482191417957491</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>116</v>
+      </c>
+      <c r="B292" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
+      <c r="F316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1.25296266875039</v>
+      </c>
+      <c r="C317" t="n">
+        <v>3.50069902068757</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.686710577241825</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1.82458623803775</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.0680634917248234</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>78</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1.81629665253622</v>
+      </c>
+      <c r="C318" t="n">
+        <v>6.14904418419726</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1.39365317388675</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1.30326302595844</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.192484979475682</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>114</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.123768712792881</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1.13175408048552</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1.26165018364079</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.0981006576923861</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.921852365284012</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>115</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2.22978288098137</v>
+      </c>
+      <c r="C320" t="n">
+        <v>9.29784712087207</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1.08775780976639</v>
+      </c>
+      <c r="E320" t="n">
+        <v>2.04988910303502</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.0403752538151354</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>116</v>
+      </c>
+      <c r="B325" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>3</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" t="s">
+        <v>7</v>
+      </c>
+      <c r="F349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.0293648844158852</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1.02980028400444</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.0537458521031696</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.546365594120955</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.584814655519503</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>78</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1.12184501818491</v>
+      </c>
+      <c r="C351" t="n">
+        <v>3.07051413476485</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1.32658474863847</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.845664040187637</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.397740189050659</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>114</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.473891646960133</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.62257470677521</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1.32823563405135</v>
+      </c>
+      <c r="E352" t="n">
+        <v>-0.356782813840555</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.72125440322666</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>115</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1.38473283427259</v>
+      </c>
+      <c r="C353" t="n">
+        <v>3.99375876680561</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.929076519598748</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1.49044002841729</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.136108574167463</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>116</v>
+      </c>
+      <c r="B358" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>3</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" t="s">
+        <v>7</v>
+      </c>
+      <c r="F382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>78</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.970872839391903</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2.64024796634151</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1.29167223192879</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.751640250051783</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.452267431209512</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>114</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.22146182336513</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.801346514277259</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1.24946951936572</v>
+      </c>
+      <c r="E384" t="n">
+        <v>-0.17724467858772</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.85931620275319</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>115</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1.48331013642442</v>
+      </c>
+      <c r="C385" t="n">
+        <v>4.40751102376425</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.91314309813029</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1.62440053422249</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.104290353148421</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>15</v>
+      </c>
+      <c r="B390" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>116</v>
+      </c>
+      <c r="B391" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -3746,6 +6742,1504 @@
         <v>204</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.0180114376453448</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.982149798812984</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0156225553532773</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-1.15291239096595</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.248946345637033</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.557958330894983</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.74710185262009</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.334308820357779</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.66899075620516</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.0951192117754215</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>186</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.22688821017871</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3.41059993616051</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.451966951281373</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.71455292627117</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.00663652949028935</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>187</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-15.6981163446786</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.000000152193006089774</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2827.36695886407</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.00555220336556014</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.995570005416739</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>188</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.97529004392836</v>
+      </c>
+      <c r="C149" t="n">
+        <v>7.20871019325453</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.02879146904695</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.92001013165303</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0548566196593865</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>189</v>
+      </c>
+      <c r="B153" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.426154580761353</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.53135747524256</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.318606189125786</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.33755901582033</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.181040232073386</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>186</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.12643424287038</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.08463779757201</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.441706157095988</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.5501891354111</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.0107664492799745</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-15.6827229878844</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.000000154553891692776</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2834.08946861376</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-0.00553360194219816</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.995584846977253</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>188</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.83961249656103</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.29409880347652</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.02055201494659</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.80256613050468</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0714563802106034</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="n">
+        <v>-0.00805732269456636</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.99197505052443</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.0139649117284765</v>
+      </c>
+      <c r="E211" t="n">
+        <v>-0.576969110240513</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.563960322706045</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>186</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.21600519179736</v>
+      </c>
+      <c r="C212" t="n">
+        <v>3.37368355953073</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.450275921707197</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2.70057787497705</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.00692191300282902</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>187</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-15.4387712031463</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.000000197254472511827</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2831.96624572019</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-0.00545160848102555</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.99565026730716</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>188</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.82365014929619</v>
+      </c>
+      <c r="C214" t="n">
+        <v>6.19442782038778</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.02316048096287</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.78236961183254</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.0746889776305469</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>189</v>
+      </c>
+      <c r="B219" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>186</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1.16611793173307</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.20950889020976</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.440978099732079</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2.64438967023886</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.00818383815921659</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>187</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-15.4649326064101</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.000000192160936245125</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2831.40680387028</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-0.00546192535289204</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.995642035756935</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>188</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.77177123827978</v>
+      </c>
+      <c r="C246" t="n">
+        <v>5.88126125630118</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.0186312734828</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.73936465962008</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.0819706404153362</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>189</v>
+      </c>
+      <c r="B252" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-0.0180114376453448</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.982149798812984</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0156225553532773</v>
+      </c>
+      <c r="E284" t="n">
+        <v>-1.15291239096595</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.248946345637033</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.557958330894983</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1.74710185262009</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.334308820357779</v>
+      </c>
+      <c r="E285" t="n">
+        <v>1.66899075620516</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.0951192117754215</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>186</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1.22688821017871</v>
+      </c>
+      <c r="C286" t="n">
+        <v>3.41059993616051</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.451966951281373</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2.71455292627117</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.00663652949028935</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>187</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-15.6981163446786</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.000000152193006089774</v>
+      </c>
+      <c r="D287" t="n">
+        <v>2827.36695886407</v>
+      </c>
+      <c r="E287" t="n">
+        <v>-0.00555220336556014</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.995570005416739</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>188</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1.97529004392836</v>
+      </c>
+      <c r="C288" t="n">
+        <v>7.20871019325453</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.02879146904695</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1.92001013165303</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.0548566196593865</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>189</v>
+      </c>
+      <c r="B292" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
+      <c r="F316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.426154580761353</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1.53135747524256</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.318606189125786</v>
+      </c>
+      <c r="E317" t="n">
+        <v>1.33755901582033</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.181040232073386</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>186</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1.12643424287038</v>
+      </c>
+      <c r="C318" t="n">
+        <v>3.08463779757201</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.441706157095988</v>
+      </c>
+      <c r="E318" t="n">
+        <v>2.5501891354111</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.0107664492799745</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>187</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-15.6827229878844</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.000000154553891692776</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2834.08946861376</v>
+      </c>
+      <c r="E319" t="n">
+        <v>-0.00553360194219816</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.995584846977253</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>188</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1.83961249656103</v>
+      </c>
+      <c r="C320" t="n">
+        <v>6.29409880347652</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1.02055201494659</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1.80256613050468</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.0714563802106034</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>189</v>
+      </c>
+      <c r="B325" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>3</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" t="s">
+        <v>7</v>
+      </c>
+      <c r="F349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.00805732269456636</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.99197505052443</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.0139649117284765</v>
+      </c>
+      <c r="E350" t="n">
+        <v>-0.576969110240513</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.563960322706045</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>186</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1.21600519179736</v>
+      </c>
+      <c r="C351" t="n">
+        <v>3.37368355953073</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.450275921707197</v>
+      </c>
+      <c r="E351" t="n">
+        <v>2.70057787497705</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.00692191300282902</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>187</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-15.4387712031463</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.000000197254472511827</v>
+      </c>
+      <c r="D352" t="n">
+        <v>2831.96624572019</v>
+      </c>
+      <c r="E352" t="n">
+        <v>-0.00545160848102555</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.99565026730716</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>188</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1.82365014929619</v>
+      </c>
+      <c r="C353" t="n">
+        <v>6.19442782038778</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1.02316048096287</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1.78236961183254</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.0746889776305469</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>189</v>
+      </c>
+      <c r="B358" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>3</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" t="s">
+        <v>7</v>
+      </c>
+      <c r="F382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>186</v>
+      </c>
+      <c r="B383" t="n">
+        <v>1.16611793173307</v>
+      </c>
+      <c r="C383" t="n">
+        <v>3.20950889020976</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.440978099732079</v>
+      </c>
+      <c r="E383" t="n">
+        <v>2.64438967023886</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.00818383815921659</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>187</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-15.4649326064101</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.000000192160936245125</v>
+      </c>
+      <c r="D384" t="n">
+        <v>2831.40680387028</v>
+      </c>
+      <c r="E384" t="n">
+        <v>-0.00546192535289204</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.995642035756935</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>188</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1.77177123827978</v>
+      </c>
+      <c r="C385" t="n">
+        <v>5.88126125630118</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1.0186312734828</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1.73936465962008</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.0819706404153362</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>15</v>
+      </c>
+      <c r="B390" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>189</v>
+      </c>
+      <c r="B391" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -4509,6 +9003,1504 @@
         <v>242</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.00869776411563901</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.00873569957073</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0164982905245751</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.52719183861402</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.598060375647964</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.645851415102617</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.524216026606459</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.318550305975475</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-2.02747071023796</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.0426142969149264</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>225</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.322672150542374</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.724211247715919</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.558936113371105</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-0.577297016283749</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.563738828934021</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>78</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-0.0747824590494276</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.927945330482345</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.516670139769094</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.144739270364741</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.88491673234661</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>226</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.949250271993783</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.5837718068902</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.576480121364195</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.64663140464836</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0996338313437937</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>227</v>
+      </c>
+      <c r="B153" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.636702206187163</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.529034196160725</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.315673589013539</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-2.01696381435272</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.043699289683694</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>225</v>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.310004348422794</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.733443766893761</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.55468563054899</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-0.558882962437611</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.576241597808727</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>78</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.0740661336433665</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.928610279429484</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.519824423609946</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-0.142482981328601</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.886698521151345</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>226</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.04609081824935</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.84650184692466</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.546615411462191</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.9137601983286</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0556508032896619</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>227</v>
+      </c>
+      <c r="B186" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.00784688548969034</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.0078777529807</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.016526407443483</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.474808909106539</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.634923182316804</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>225</v>
+      </c>
+      <c r="B212" t="n">
+        <v>-0.679086404445208</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.507080046887866</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.533390490660052</v>
+      </c>
+      <c r="E212" t="n">
+        <v>-1.27315056480453</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.202964618829101</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>78</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.350260591105921</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.41943739316213</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.475077017581546</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.737271175290645</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.46095745754132</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.07415065504218</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.92750538236722</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.568030939686088</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.89100730258775</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.058623369415929</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>227</v>
+      </c>
+      <c r="B219" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>225</v>
+      </c>
+      <c r="B244" t="n">
+        <v>-0.648741318411498</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.522703279875307</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.528565446846104</v>
+      </c>
+      <c r="E244" t="n">
+        <v>-1.22736233002454</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.219686438182966</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>78</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.360711759138979</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.43434996301958</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.47449540293207</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.760200745697465</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.447134599330038</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>226</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.14936003065093</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3.15617240962713</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.546376844595535</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2.1036031120641</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.0354130822663233</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>227</v>
+      </c>
+      <c r="B252" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.00869776411563901</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.00873569957073</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0164982905245751</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.52719183861402</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.598060375647964</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.645851415102617</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.524216026606459</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.318550305975475</v>
+      </c>
+      <c r="E285" t="n">
+        <v>-2.02747071023796</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.0426142969149264</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>225</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.322672150542374</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.724211247715919</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.558936113371105</v>
+      </c>
+      <c r="E286" t="n">
+        <v>-0.577297016283749</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.563738828934021</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>78</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-0.0747824590494276</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.927945330482345</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.516670139769094</v>
+      </c>
+      <c r="E287" t="n">
+        <v>-0.144739270364741</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.88491673234661</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>226</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.949250271993783</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2.5837718068902</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.576480121364195</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1.64663140464836</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.0996338313437937</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>227</v>
+      </c>
+      <c r="B292" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
+      <c r="F316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.636702206187163</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.529034196160725</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.315673589013539</v>
+      </c>
+      <c r="E317" t="n">
+        <v>-2.01696381435272</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.043699289683694</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>225</v>
+      </c>
+      <c r="B318" t="n">
+        <v>-0.310004348422794</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.733443766893761</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.55468563054899</v>
+      </c>
+      <c r="E318" t="n">
+        <v>-0.558882962437611</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.576241597808727</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>78</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-0.0740661336433665</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.928610279429484</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.519824423609946</v>
+      </c>
+      <c r="E319" t="n">
+        <v>-0.142482981328601</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.886698521151345</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>226</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1.04609081824935</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2.84650184692466</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.546615411462191</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1.9137601983286</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.0556508032896619</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>227</v>
+      </c>
+      <c r="B325" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>3</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" t="s">
+        <v>7</v>
+      </c>
+      <c r="F349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.00784688548969034</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1.0078777529807</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.016526407443483</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.474808909106539</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.634923182316804</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>225</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-0.679086404445208</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.507080046887866</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.533390490660052</v>
+      </c>
+      <c r="E351" t="n">
+        <v>-1.27315056480453</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.202964618829101</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>78</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.350260591105921</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1.41943739316213</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.475077017581546</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.737271175290645</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.46095745754132</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>226</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1.07415065504218</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2.92750538236722</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.568030939686088</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1.89100730258775</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.058623369415929</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>227</v>
+      </c>
+      <c r="B358" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>3</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" t="s">
+        <v>7</v>
+      </c>
+      <c r="F382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>225</v>
+      </c>
+      <c r="B383" t="n">
+        <v>-0.648741318411498</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.522703279875307</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.528565446846104</v>
+      </c>
+      <c r="E383" t="n">
+        <v>-1.22736233002454</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.219686438182966</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>78</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.360711759138979</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1.43434996301958</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.47449540293207</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.760200745697465</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.447134599330038</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>226</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1.14936003065093</v>
+      </c>
+      <c r="C385" t="n">
+        <v>3.15617240962713</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.546376844595535</v>
+      </c>
+      <c r="E385" t="n">
+        <v>2.1036031120641</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.0354130822663233</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>15</v>
+      </c>
+      <c r="B390" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>227</v>
+      </c>
+      <c r="B391" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5272,6 +11264,1504 @@
         <v>277</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.00790596622884066</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.00793730090237</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0130046729490601</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.607932722322866</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.543232095831843</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.156897599094869</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.85479158576827</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.148204405647313</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-1.05865678155508</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.289756117195743</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>261</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.0613316522073627</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.06325148542057</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.568154451132343</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.107948907352794</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.914036221301159</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>225</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-0.186124463466788</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.8301702626826</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.746097777085885</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-0.24946390296692</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.803001959658049</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.870664489967435</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.38849745892291</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.67272401581257</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.29423726446837</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.195583478736498</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>208</v>
+      </c>
+      <c r="B153" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.168170278589067</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.845209901281162</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.147143711392313</v>
+      </c>
+      <c r="E178" t="n">
+        <v>-1.14289817075969</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.253080872135989</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>261</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.134893913287452</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.14441537064678</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.55304214743995</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.243912537067709</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.807298559209772</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>225</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.115796322873517</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.890656611203815</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.738184257586431</v>
+      </c>
+      <c r="E180" t="n">
+        <v>-0.156866421470603</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.875350123964532</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>262</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.952621051779933</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.59249582778523</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.659598647111998</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.44424348950822</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.148670495548315</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>15</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>208</v>
+      </c>
+      <c r="B186" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>3</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.00938266561215986</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.00942682080893</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.0128291566245248</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.731354826101627</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.464562450261764</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>261</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.390839365564166</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.47822104113756</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.483037639028008</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.809128179639649</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.418441420752769</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>225</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.231957390126704</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.792979911360376</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.741816429132366</v>
+      </c>
+      <c r="E213" t="n">
+        <v>-0.312688397044539</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.754517411667851</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>262</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.06117085295509</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.88975248450075</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.651788277968416</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.62809134319305</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.103505518858003</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>208</v>
+      </c>
+      <c r="B219" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" t="s">
+        <v>7</v>
+      </c>
+      <c r="F243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>261</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.502434265122129</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.65273958422147</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.460178017010326</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1.09182587292268</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.274909644516784</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>225</v>
+      </c>
+      <c r="B245" t="n">
+        <v>-0.165153611716997</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.847763467683375</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.736529881284219</v>
+      </c>
+      <c r="E245" t="n">
+        <v>-0.22423205889357</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.822576739134007</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>262</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.17286830892454</v>
+      </c>
+      <c r="C246" t="n">
+        <v>3.23124757543228</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.635985442004256</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.84417477423437</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.0651576734071501</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>208</v>
+      </c>
+      <c r="B252" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
+      <c r="F283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>9</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.00790596622884066</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.00793730090237</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.0130046729490601</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.607932722322866</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.543232095831843</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-0.156897599094869</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.85479158576827</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.148204405647313</v>
+      </c>
+      <c r="E285" t="n">
+        <v>-1.05865678155508</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.289756117195743</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>261</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.0613316522073627</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1.06325148542057</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.568154451132343</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.107948907352794</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.914036221301159</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>225</v>
+      </c>
+      <c r="B287" t="n">
+        <v>-0.186124463466788</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.8301702626826</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.746097777085885</v>
+      </c>
+      <c r="E287" t="n">
+        <v>-0.24946390296692</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.803001959658049</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>262</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.870664489967435</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2.38849745892291</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.67272401581257</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1.29423726446837</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.195583478736498</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>15</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>208</v>
+      </c>
+      <c r="B292" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
+      </c>
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
+      <c r="F316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-0.168170278589067</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.845209901281162</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.147143711392313</v>
+      </c>
+      <c r="E317" t="n">
+        <v>-1.14289817075969</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.253080872135989</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>261</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.134893913287452</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1.14441537064678</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.55304214743995</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.243912537067709</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.807298559209772</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>225</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-0.115796322873517</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.890656611203815</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.738184257586431</v>
+      </c>
+      <c r="E319" t="n">
+        <v>-0.156866421470603</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.875350123964532</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>262</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.952621051779933</v>
+      </c>
+      <c r="C320" t="n">
+        <v>2.59249582778523</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.659598647111998</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1.44424348950822</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.148670495548315</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>15</v>
+      </c>
+      <c r="B324" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>208</v>
+      </c>
+      <c r="B325" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>3</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+      <c r="D349" t="s">
+        <v>6</v>
+      </c>
+      <c r="E349" t="s">
+        <v>7</v>
+      </c>
+      <c r="F349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.00938266561215986</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1.00942682080893</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.0128291566245248</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.731354826101627</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.464562450261764</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>261</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.390839365564166</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1.47822104113756</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.483037639028008</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.809128179639649</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.418441420752769</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>225</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.231957390126704</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.792979911360376</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.741816429132366</v>
+      </c>
+      <c r="E352" t="n">
+        <v>-0.312688397044539</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.754517411667851</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>262</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1.06117085295509</v>
+      </c>
+      <c r="C353" t="n">
+        <v>2.88975248450075</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.651788277968416</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1.62809134319305</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.103505518858003</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>15</v>
+      </c>
+      <c r="B357" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>208</v>
+      </c>
+      <c r="B358" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>3</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" t="s">
+        <v>7</v>
+      </c>
+      <c r="F382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>261</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.502434265122129</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1.65273958422147</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.460178017010326</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1.09182587292268</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.274909644516784</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>225</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-0.165153611716997</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.847763467683375</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0.736529881284219</v>
+      </c>
+      <c r="E384" t="n">
+        <v>-0.22423205889357</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.822576739134007</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>262</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1.17286830892454</v>
+      </c>
+      <c r="C385" t="n">
+        <v>3.23124757543228</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.635985442004256</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1.84417477423437</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.0651576734071501</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>15</v>
+      </c>
+      <c r="B390" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>208</v>
+      </c>
+      <c r="B391" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
